--- a/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>6971</v>
+        <v>6980</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>6971</v>
+        <v>6980</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>-6971</v>
+        <v>-6980</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5525,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>6971</v>
+        <v>6980</v>
       </c>
       <c r="X66">
-        <v>-6971</v>
+        <v>-6980</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>6402</v>
+        <v>6411</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>6402</v>
+        <v>6411</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>-6402</v>
+        <v>-6411</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5599,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>6402</v>
+        <v>6411</v>
       </c>
       <c r="X67">
-        <v>-6402</v>
+        <v>-6411</v>
       </c>
     </row>
   </sheetData>

--- a/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/13/1/2/3/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5486,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>6980</v>
+        <v>7013</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5495,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>6980</v>
+        <v>7013</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -5507,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>-6980</v>
+        <v>-7013</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5525,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>6980</v>
+        <v>7013</v>
       </c>
       <c r="X66">
-        <v>-6980</v>
+        <v>-7013</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -5560,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>6411</v>
+        <v>6444</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5569,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>6411</v>
+        <v>6444</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -5581,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>-6411</v>
+        <v>-6444</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5599,10 +5602,84 @@
         <v>0</v>
       </c>
       <c r="W67">
-        <v>6411</v>
+        <v>6444</v>
       </c>
       <c r="X67">
-        <v>-6411</v>
+        <v>-6444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>5866</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>5866</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>-5866</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>5866</v>
+      </c>
+      <c r="X68">
+        <v>-5866</v>
       </c>
     </row>
   </sheetData>
